--- a/fdms/sample_data/countrygroups.xlsx
+++ b/fdms/sample_data/countrygroups.xlsx
@@ -93,22 +93,22 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t xml:space="preserve">Euro area</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -135,3150 +135,3150 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t xml:space="preserve">Euro area</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>BG</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>13</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>BGR</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Bulgaria</t>
+          <t>Germany</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t xml:space="preserve">Euro area</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>CZ</t>
+          <t>EE</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>25</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>CZE</t>
+          <t>EST</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Czech Republic</t>
+          <t>Estonia</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t xml:space="preserve">Euro area</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>DK</t>
+          <t>IE</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>7</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>DNK</t>
+          <t>IRL</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Ireland</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t xml:space="preserve">Euro area</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>EL</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>GRC</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Greece</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t xml:space="preserve">Euro area</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>EE</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>EST</t>
+          <t>ESP</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Estonia</t>
+          <t>Spain</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t xml:space="preserve">Euro area</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>IE</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>IRL</t>
+          <t>FRA</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Ireland</t>
+          <t>France</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t xml:space="preserve">Euro area</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>EL</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>8</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>GRC</t>
+          <t>ITA</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Italy</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t xml:space="preserve">Euro area</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>CY</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>27</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>ESP</t>
+          <t>CYP</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Cyprus</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t xml:space="preserve">Euro area</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>LV</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>23</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>FRA</t>
+          <t>LVA</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Latvia</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t xml:space="preserve">Euro area</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>HR</t>
+          <t>LT</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>24</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>HRV</t>
+          <t>LTU</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Lithuania</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t xml:space="preserve">Euro area</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>LU</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>ITA</t>
+          <t>LUX</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Luxembourg</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t xml:space="preserve">Euro area</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>CY</t>
+          <t>MT</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>28</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>CYP</t>
+          <t>MLT</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Cyprus</t>
+          <t>Malta</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t xml:space="preserve">Euro area</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>LV</t>
+          <t>NL</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>LVA</t>
+          <t>NLD</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Latvia</t>
+          <t>Netherlands</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t xml:space="preserve">Euro area</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>LT</t>
+          <t>AT</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>LTU</t>
+          <t>AUT</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>Austria</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t xml:space="preserve">Euro area</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>LU</t>
+          <t>PT</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>11</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>LUX</t>
+          <t>PRT</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Luxembourg</t>
+          <t>Portugal</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t xml:space="preserve">Euro area</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>HU</t>
+          <t>SI</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>36</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>HUN</t>
+          <t>SVN</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Slovenia</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t xml:space="preserve">Euro area</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>MT</t>
+          <t>SK</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>35</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>MLT</t>
+          <t>SVK</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Malta</t>
+          <t>Slovakia</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t>EA</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t xml:space="preserve">Euro area</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>NL</t>
+          <t>FI</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>18</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>NLD</t>
+          <t>FIN</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Finland</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>AT</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>AUT</t>
+          <t>BEL</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Belgium</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>PL</t>
+          <t>BG</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>33</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>POL</t>
+          <t>BGR</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Bulgaria</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>PT</t>
+          <t>CZ</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>21</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>PRT</t>
+          <t>CZE</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t xml:space="preserve">Czech Republic</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>DK</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>ROM</t>
+          <t>DNK</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>Denmark</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>13</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>SVN</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Germany</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>SK</t>
+          <t>EE</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>25</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>SVK</t>
+          <t>EST</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Estonia</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>SE</t>
+          <t>IE</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>7</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>SWE</t>
+          <t>IRL</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Ireland</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>FI</t>
+          <t>EL</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>FIN</t>
+          <t>GRC</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>Greece</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>ESP</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t xml:space="preserve">United Kingdom</t>
+          <t>Spain</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>TUR</t>
+          <t>FRA</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>France</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>MK</t>
+          <t>HR</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>37</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>MKD</t>
+          <t>HRV</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t xml:space="preserve">The former Yugoslav Republic of Macedonia</t>
+          <t>Croatia</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>ME</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>8</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>MNE</t>
+          <t>ITA</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Montenegro</t>
+          <t>Italy</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>IS</t>
+          <t>CY</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>27</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>ISL</t>
+          <t>CYP</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Iceland</t>
+          <t>Cyprus</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>RS</t>
+          <t>LV</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>23</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>SRB</t>
+          <t>LVA</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Serbia</t>
+          <t>Latvia</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>AL</t>
+          <t>LT</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>24</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>ALB</t>
+          <t>LTU</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Albania</t>
+          <t>Lithuania</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>LU</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>9</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>LUX</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Luxembourg</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>HU</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>22</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>JPN</t>
+          <t>HUN</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>Hungary</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>CA</t>
+          <t>MT</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>31</t>
+          <t>28</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>CAN</t>
+          <t>MLT</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>Canada</t>
+          <t>Malta</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>CH</t>
+          <t>NL</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>CHE</t>
+          <t>NLD</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Netherlands</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>AT</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>NOR</t>
+          <t>AUT</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Austria</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>MX</t>
+          <t>PL</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>32</t>
+          <t>20</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>MEX</t>
+          <t>POL</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>Mexico</t>
+          <t>Poland</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>KO</t>
+          <t>PT</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>11</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>KOR</t>
+          <t>PRT</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>Korea</t>
+          <t>Portugal</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>AU</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>34</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>AUS</t>
+          <t>ROM</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>Australia</t>
+          <t>Romania</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>NZ</t>
+          <t>SI</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>51</t>
+          <t>36</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>NZL</t>
+          <t>SVN</t>
         </is>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t xml:space="preserve">New Zealand</t>
+          <t>Slovenia</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>CN</t>
+          <t>SK</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>52</t>
+          <t>35</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>CHN</t>
+          <t>SVK</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>China</t>
+          <t>Slovakia</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>HK</t>
+          <t>SE</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>53</t>
+          <t>17</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>HKG</t>
+          <t>SWE</t>
         </is>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t xml:space="preserve">Hong Kong</t>
+          <t>Sweden</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>FI</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>18</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>RUS</t>
+          <t>FIN</t>
         </is>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>Finland</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t>EU</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>DL</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>93</t>
+          <t>12</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>DEL</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t xml:space="preserve">Germany (linked with West Germany in 1991)</t>
+          <t xml:space="preserve">United Kingdom</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t xml:space="preserve">Forecast: Countries from small files</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t xml:space="preserve">Forecast: Countries from small files</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t xml:space="preserve">Forecast: Countries from small files</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t xml:space="preserve">Forecast: Countries from small files</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>WD</t>
+          <t>CA</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>31</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>D_W</t>
+          <t>CAN</t>
         </is>
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t xml:space="preserve">West Germany</t>
+          <t>Canada</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t xml:space="preserve">Forecast: Countries from small files</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t xml:space="preserve">Forecast: Countries from small files</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t xml:space="preserve">Forecast: Countries from small files</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t xml:space="preserve">Forecast: Countries from small files</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>MX</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>32</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>IDN</t>
+          <t>MEX</t>
         </is>
       </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>Indonesia</t>
+          <t>Mexico</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t xml:space="preserve">Forecast: Countries from small files</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t xml:space="preserve">Forecast: Countries from small files</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t xml:space="preserve">Forecast: Countries from small files</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t xml:space="preserve">Forecast: Countries from small files</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>BL</t>
+          <t>KO</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>19</t>
+          <t>41</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>BLU</t>
+          <t>KOR</t>
         </is>
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>BLEU</t>
+          <t>Korea</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t xml:space="preserve">Forecast: Countries from small files</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t xml:space="preserve">Forecast: Countries from small files</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t xml:space="preserve">Forecast: Countries from small files</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t xml:space="preserve">Forecast: Countries from small files</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>BR</t>
+          <t>AU</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>55</t>
+          <t>50</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>BRA</t>
+          <t>AUS</t>
         </is>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Brazil</t>
+          <t>Australia</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t xml:space="preserve">Forecast: Countries from small files</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t xml:space="preserve">Forecast: Countries from small files</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t xml:space="preserve">Forecast: Countries from small files</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t xml:space="preserve">Forecast: Countries from small files</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>IN</t>
+          <t>NZ</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>51</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>IND</t>
+          <t>NZL</t>
         </is>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>India</t>
+          <t xml:space="preserve">New Zealand</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t xml:space="preserve">Forecast: Countries from small files</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t xml:space="preserve">Forecast: Countries from small files</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t xml:space="preserve">Forecast: Countries from small files</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t xml:space="preserve">Forecast: Countries from small files</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>AR</t>
+          <t>CN</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>58</t>
+          <t>52</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>ARG</t>
+          <t>CHN</t>
         </is>
       </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>Argentina</t>
+          <t>China</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t xml:space="preserve">Forecast: Countries from small files</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t xml:space="preserve">Forecast: Countries from small files</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t xml:space="preserve">Forecast: Countries from small files</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t xml:space="preserve">Forecast: Countries from small files</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>SA</t>
+          <t>HK</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>59</t>
+          <t>53</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>SAU</t>
+          <t>HKG</t>
         </is>
       </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t xml:space="preserve">Saudi Arabia</t>
+          <t xml:space="preserve">Hong Kong</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t xml:space="preserve">Forecast: Countries from small files</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t xml:space="preserve">Forecast: Countries from small files</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t xml:space="preserve">Forecast: Countries from small files</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t xml:space="preserve">Forecast: Countries from small files</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>ZA</t>
+          <t>ID</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>57</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>ZAF</t>
+          <t>IDN</t>
         </is>
       </c>
       <c r="H56" t="inlineStr">
         <is>
-          <t xml:space="preserve">South Africa</t>
+          <t>Indonesia</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t xml:space="preserve">Forecast: Countries from small files</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t xml:space="preserve">Forecast: Countries from small files</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t xml:space="preserve">Forecast: Countries from small files</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t xml:space="preserve">Forecast: Countries from small files</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>TW</t>
+          <t>BR</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>158</t>
+          <t>55</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>TWN</t>
+          <t>BRA</t>
         </is>
       </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>Taiwan</t>
+          <t>Brazil</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t xml:space="preserve">Forecast: Countries from small files</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t xml:space="preserve">Forecast: Countries from small files</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t xml:space="preserve">Forecast: Countries from small files</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t xml:space="preserve">All Countries</t>
+          <t xml:space="preserve">Forecast: Countries from small files</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>SG</t>
+          <t>IN</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>702</t>
+          <t>56</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>SGP</t>
+          <t>IND</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Singapore</t>
+          <t>India</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t xml:space="preserve">Forecast: Countries from small files</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t xml:space="preserve">Forecast: Countries from small files</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t xml:space="preserve">Forecast: Countries from small files</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t xml:space="preserve">Euro area</t>
+          <t xml:space="preserve">Forecast: Countries from small files</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>AR</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>58</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>BEL</t>
+          <t>ARG</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Argentina</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t xml:space="preserve">Forecast: Countries from small files</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t xml:space="preserve">Forecast: Countries from small files</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t xml:space="preserve">Forecast: Countries from small files</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t xml:space="preserve">Euro area</t>
+          <t xml:space="preserve">Forecast: Countries from small files</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>SA</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>59</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>SAU</t>
         </is>
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t xml:space="preserve">Saudi Arabia</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t xml:space="preserve">Forecast: Countries from small files</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t xml:space="preserve">Forecast: Countries from small files</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t xml:space="preserve">Forecast: Countries from small files</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t xml:space="preserve">Euro area</t>
+          <t xml:space="preserve">Forecast: Countries from small files</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>EE</t>
+          <t>ZA</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>60</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>EST</t>
+          <t>ZAF</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Estonia</t>
+          <t xml:space="preserve">South Africa</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t xml:space="preserve">Forecast: Countries from small files</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t xml:space="preserve">Forecast: Countries from small files</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t xml:space="preserve">Forecast: Countries from small files</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t xml:space="preserve">Euro area</t>
+          <t xml:space="preserve">Forecast: Countries from small files</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>IE</t>
+          <t xml:space="preserve">Latin America</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>7</t>
+          <t xml:space="preserve">Latin America</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>IRL</t>
+          <t xml:space="preserve">Latin America</t>
         </is>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Ireland</t>
+          <t xml:space="preserve">Latin America</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t xml:space="preserve">Forecast: Countries from small files</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t xml:space="preserve">Forecast: Countries from small files</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t xml:space="preserve">Forecast: Countries from small files</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t xml:space="preserve">Euro area</t>
+          <t xml:space="preserve">Forecast: Countries from small files</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>EL</t>
+          <t xml:space="preserve">MENA (Middle East and Northern Africa)</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>4</t>
+          <t xml:space="preserve">MENA (Middle East and Northern Africa)</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>GRC</t>
+          <t xml:space="preserve">MENA (Middle East and Northern Africa)</t>
         </is>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>MENA</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t xml:space="preserve">Forecast: Countries from small files</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t xml:space="preserve">Forecast: Countries from small files</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t xml:space="preserve">Forecast: Countries from small files</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t xml:space="preserve">Euro area</t>
+          <t xml:space="preserve">Forecast: Countries from small files</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t xml:space="preserve">Other Asia</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>5</t>
+          <t xml:space="preserve">Other Asia</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
         <is>
-          <t>ESP</t>
+          <t xml:space="preserve">Other Asia</t>
         </is>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t xml:space="preserve">Other Asia</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t xml:space="preserve">Forecast: Countries from small files</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t xml:space="preserve">Forecast: Countries from small files</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t xml:space="preserve">Forecast: Countries from small files</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t xml:space="preserve">Euro area</t>
+          <t xml:space="preserve">Forecast: Countries from small files</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t xml:space="preserve">Other CIS</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>6</t>
+          <t xml:space="preserve">Other CIS</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>FRA</t>
+          <t xml:space="preserve">Other CIS</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>France</t>
+          <t xml:space="preserve">Other CIS</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t xml:space="preserve">Forecast: Countries from small files</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t xml:space="preserve">Forecast: Countries from small files</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t xml:space="preserve">Forecast: Countries from small files</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t xml:space="preserve">Euro area</t>
+          <t xml:space="preserve">Forecast: Countries from small files</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t xml:space="preserve">Other Latin America</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>8</t>
+          <t xml:space="preserve">Other Latin America</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>ITA</t>
+          <t xml:space="preserve">Other Latin America</t>
         </is>
       </c>
       <c r="H66" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t xml:space="preserve">Other Latin America</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t xml:space="preserve">Forecast: Countries from small files</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t xml:space="preserve">Forecast: Countries from small files</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t xml:space="preserve">Forecast: Countries from small files</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t xml:space="preserve">Euro area</t>
+          <t xml:space="preserve">Forecast: Countries from small files</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>CY</t>
+          <t xml:space="preserve">Sub-Saharan Africa</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>27</t>
+          <t xml:space="preserve">Sub-Saharan Africa</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>CYP</t>
+          <t xml:space="preserve">Sub-Saharan Africa</t>
         </is>
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>Cyprus</t>
+          <t xml:space="preserve">Sub-Saharan Africa</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t xml:space="preserve">Forecast: Countries from small files</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t xml:space="preserve">Forecast: Countries from small files</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t xml:space="preserve">Forecast: Countries from small files</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t xml:space="preserve">Euro area</t>
+          <t xml:space="preserve">Forecast: Countries from small files</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>LV</t>
+          <t>TW</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>158</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>LVA</t>
+          <t>TWN</t>
         </is>
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>Latvia</t>
+          <t>Taiwan</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t xml:space="preserve">Forecast: Countries from small files</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t xml:space="preserve">Forecast: Countries from small files</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t xml:space="preserve">Forecast: Countries from small files</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t xml:space="preserve">Euro area</t>
+          <t xml:space="preserve">Forecast: Countries from small files</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>LT</t>
+          <t>SG</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>702</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>LTU</t>
+          <t>SGP</t>
         </is>
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>Singapore</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t xml:space="preserve">Forecast: Countries from transfer matrix</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t xml:space="preserve">Forecast: Countries from transfer matrix</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t xml:space="preserve">Forecast: Countries from transfer matrix</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t xml:space="preserve">Euro area</t>
+          <t xml:space="preserve">Forecast: Countries from transfer matrix</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>LU</t>
+          <t>BE</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>1</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>LUX</t>
+          <t>BEL</t>
         </is>
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>Luxembourg</t>
+          <t>Belgium</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t xml:space="preserve">Forecast: Countries from transfer matrix</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t xml:space="preserve">Forecast: Countries from transfer matrix</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t xml:space="preserve">Forecast: Countries from transfer matrix</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t xml:space="preserve">Euro area</t>
+          <t xml:space="preserve">Forecast: Countries from transfer matrix</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>MT</t>
+          <t>BG</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>33</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>MLT</t>
+          <t>BGR</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>Malta</t>
+          <t>Bulgaria</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t xml:space="preserve">Forecast: Countries from transfer matrix</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t xml:space="preserve">Forecast: Countries from transfer matrix</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t xml:space="preserve">Forecast: Countries from transfer matrix</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t xml:space="preserve">Euro area</t>
+          <t xml:space="preserve">Forecast: Countries from transfer matrix</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>NL</t>
+          <t>CZ</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>21</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>NLD</t>
+          <t>CZE</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t xml:space="preserve">Czech Republic</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t xml:space="preserve">Forecast: Countries from transfer matrix</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t xml:space="preserve">Forecast: Countries from transfer matrix</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t xml:space="preserve">Forecast: Countries from transfer matrix</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t xml:space="preserve">Euro area</t>
+          <t xml:space="preserve">Forecast: Countries from transfer matrix</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>AT</t>
+          <t>DK</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>2</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>AUT</t>
+          <t>DNK</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t>Denmark</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t xml:space="preserve">Forecast: Countries from transfer matrix</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t xml:space="preserve">Forecast: Countries from transfer matrix</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t xml:space="preserve">Forecast: Countries from transfer matrix</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t xml:space="preserve">Euro area</t>
+          <t xml:space="preserve">Forecast: Countries from transfer matrix</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>PT</t>
+          <t>DE</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>13</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>PRT</t>
+          <t>DEU</t>
         </is>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t>Germany</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t xml:space="preserve">Forecast: Countries from transfer matrix</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t xml:space="preserve">Forecast: Countries from transfer matrix</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t xml:space="preserve">Forecast: Countries from transfer matrix</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t xml:space="preserve">Euro area</t>
+          <t xml:space="preserve">Forecast: Countries from transfer matrix</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>EE</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>25</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>SVN</t>
+          <t>EST</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Estonia</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t xml:space="preserve">Forecast: Countries from transfer matrix</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t xml:space="preserve">Forecast: Countries from transfer matrix</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t xml:space="preserve">Forecast: Countries from transfer matrix</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t xml:space="preserve">Euro area</t>
+          <t xml:space="preserve">Forecast: Countries from transfer matrix</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>SK</t>
+          <t>IE</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>7</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>SVK</t>
+          <t>IRL</t>
         </is>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Ireland</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t xml:space="preserve">Forecast: Countries from transfer matrix</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t xml:space="preserve">Forecast: Countries from transfer matrix</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>EA</t>
+          <t xml:space="preserve">Forecast: Countries from transfer matrix</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t xml:space="preserve">Euro area</t>
+          <t xml:space="preserve">Forecast: Countries from transfer matrix</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>FI</t>
+          <t>EL</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>FIN</t>
+          <t>GRC</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>Greece</t>
         </is>
       </c>
     </row>
@@ -3305,22 +3305,22 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>BEL</t>
+          <t>ESP</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Belgium</t>
+          <t>Spain</t>
         </is>
       </c>
     </row>
@@ -3347,22 +3347,22 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>BG</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>BGR</t>
+          <t>FRA</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Bulgaria</t>
+          <t>France</t>
         </is>
       </c>
     </row>
@@ -3389,22 +3389,22 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>CZ</t>
+          <t>HR</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>21</t>
+          <t>37</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>CZE</t>
+          <t>HRV</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t xml:space="preserve">Czech Republic</t>
+          <t>Croatia</t>
         </is>
       </c>
     </row>
@@ -3431,22 +3431,22 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>DK</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>8</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>DNK</t>
+          <t>ITA</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>Denmark</t>
+          <t>Italy</t>
         </is>
       </c>
     </row>
@@ -3473,22 +3473,22 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>DE</t>
+          <t>CY</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>27</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>DEU</t>
+          <t>CYP</t>
         </is>
       </c>
       <c r="H82" t="inlineStr">
         <is>
-          <t>Germany</t>
+          <t>Cyprus</t>
         </is>
       </c>
     </row>
@@ -3515,22 +3515,22 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>EE</t>
+          <t>LV</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>23</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>EST</t>
+          <t>LVA</t>
         </is>
       </c>
       <c r="H83" t="inlineStr">
         <is>
-          <t>Estonia</t>
+          <t>Latvia</t>
         </is>
       </c>
     </row>
@@ -3557,22 +3557,22 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>IE</t>
+          <t>LT</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>24</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>IRL</t>
+          <t>LTU</t>
         </is>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Ireland</t>
+          <t>Lithuania</t>
         </is>
       </c>
     </row>
@@ -3599,22 +3599,22 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>EL</t>
+          <t>LU</t>
         </is>
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>9</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>GRC</t>
+          <t>LUX</t>
         </is>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Greece</t>
+          <t>Luxembourg</t>
         </is>
       </c>
     </row>
@@ -3641,22 +3641,22 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>ES</t>
+          <t>HU</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>22</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>ESP</t>
+          <t>HUN</t>
         </is>
       </c>
       <c r="H86" t="inlineStr">
         <is>
-          <t>Spain</t>
+          <t>Hungary</t>
         </is>
       </c>
     </row>
@@ -3683,22 +3683,22 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>FR</t>
+          <t>MT</t>
         </is>
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>28</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
         <is>
-          <t>FRA</t>
+          <t>MLT</t>
         </is>
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>France</t>
+          <t>Malta</t>
         </is>
       </c>
     </row>
@@ -3725,22 +3725,22 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>HR</t>
+          <t>NL</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>HRV</t>
+          <t>NLD</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Croatia</t>
+          <t>Netherlands</t>
         </is>
       </c>
     </row>
@@ -3767,22 +3767,22 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>IT</t>
+          <t>AT</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>ITA</t>
+          <t>AUT</t>
         </is>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Italy</t>
+          <t>Austria</t>
         </is>
       </c>
     </row>
@@ -3809,22 +3809,22 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>CY</t>
+          <t>PL</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>20</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>CYP</t>
+          <t>POL</t>
         </is>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Cyprus</t>
+          <t>Poland</t>
         </is>
       </c>
     </row>
@@ -3851,22 +3851,22 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>LV</t>
+          <t>PT</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>23</t>
+          <t>11</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>LVA</t>
+          <t>PRT</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Latvia</t>
+          <t>Portugal</t>
         </is>
       </c>
     </row>
@@ -3893,22 +3893,22 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>LT</t>
+          <t>RO</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>34</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>LTU</t>
+          <t>ROM</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Lithuania</t>
+          <t>Romania</t>
         </is>
       </c>
     </row>
@@ -3935,22 +3935,22 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>LU</t>
+          <t>SI</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>36</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>LUX</t>
+          <t>SVN</t>
         </is>
       </c>
       <c r="H93" t="inlineStr">
         <is>
-          <t>Luxembourg</t>
+          <t>Slovenia</t>
         </is>
       </c>
     </row>
@@ -3977,22 +3977,22 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>HU</t>
+          <t>SK</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>22</t>
+          <t>35</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>HUN</t>
+          <t>SVK</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Hungary</t>
+          <t>Slovakia</t>
         </is>
       </c>
     </row>
@@ -4019,22 +4019,22 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>MT</t>
+          <t>SE</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>28</t>
+          <t>17</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>MLT</t>
+          <t>SWE</t>
         </is>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Malta</t>
+          <t>Sweden</t>
         </is>
       </c>
     </row>
@@ -4061,22 +4061,22 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>NL</t>
+          <t>FI</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>18</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>NLD</t>
+          <t>FIN</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>Netherlands</t>
+          <t>Finland</t>
         </is>
       </c>
     </row>
@@ -4103,22 +4103,22 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>AT</t>
+          <t>UK</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>12</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>AUT</t>
+          <t>GBR</t>
         </is>
       </c>
       <c r="H97" t="inlineStr">
         <is>
-          <t>Austria</t>
+          <t xml:space="preserve">United Kingdom</t>
         </is>
       </c>
     </row>
@@ -4145,22 +4145,22 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>PL</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>20</t>
+          <t>26</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>POL</t>
+          <t>TUR</t>
         </is>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Poland</t>
+          <t>Turkey</t>
         </is>
       </c>
     </row>
@@ -4187,22 +4187,22 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>PT</t>
+          <t>MK</t>
         </is>
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>38</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>PRT</t>
+          <t>MKD</t>
         </is>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Portugal</t>
+          <t xml:space="preserve">The former Yugoslav Republic of Macedonia</t>
         </is>
       </c>
     </row>
@@ -4229,22 +4229,22 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>RO</t>
+          <t>ME</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>39</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>ROM</t>
+          <t>MNE</t>
         </is>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Romania</t>
+          <t>Montenegro</t>
         </is>
       </c>
     </row>
@@ -4271,22 +4271,22 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>SI</t>
+          <t>IS</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>29</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
         <is>
-          <t>SVN</t>
+          <t>ISL</t>
         </is>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Slovenia</t>
+          <t>Iceland</t>
         </is>
       </c>
     </row>
@@ -4313,22 +4313,22 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>SK</t>
+          <t>RS</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>45</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>SVK</t>
+          <t>SRB</t>
         </is>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Slovakia</t>
+          <t>Serbia</t>
         </is>
       </c>
     </row>
@@ -4355,22 +4355,22 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>SE</t>
+          <t>AL</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>46</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>SWE</t>
+          <t>ALB</t>
         </is>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Sweden</t>
+          <t>Albania</t>
         </is>
       </c>
     </row>
@@ -4397,22 +4397,22 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>FI</t>
+          <t>US</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>18</t>
+          <t>30</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>FIN</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="H104" t="inlineStr">
         <is>
-          <t>Finland</t>
+          <t>USA</t>
         </is>
       </c>
     </row>
@@ -4439,22 +4439,22 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>UK</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>40</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>GBR</t>
+          <t>JPN</t>
         </is>
       </c>
       <c r="H105" t="inlineStr">
         <is>
-          <t xml:space="preserve">United Kingdom</t>
+          <t>Japan</t>
         </is>
       </c>
     </row>
@@ -4481,22 +4481,22 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>TR</t>
+          <t>CH</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>14</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
         <is>
-          <t>TUR</t>
+          <t>CHE</t>
         </is>
       </c>
       <c r="H106" t="inlineStr">
         <is>
-          <t>Turkey</t>
+          <t>Switzerland</t>
         </is>
       </c>
     </row>
@@ -4523,22 +4523,22 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>MK</t>
+          <t>NO</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>38</t>
+          <t>16</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
         <is>
-          <t>MKD</t>
+          <t>NOR</t>
         </is>
       </c>
       <c r="H107" t="inlineStr">
         <is>
-          <t xml:space="preserve">The former Yugoslav Republic of Macedonia</t>
+          <t>Norway</t>
         </is>
       </c>
     </row>
@@ -4565,22 +4565,22 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>ME</t>
+          <t>RU</t>
         </is>
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>54</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>MNE</t>
+          <t>RUS</t>
         </is>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Montenegro</t>
+          <t>Russia</t>
         </is>
       </c>
     </row>
@@ -4607,1196 +4607,398 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>IS</t>
+          <t>DAE</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>29</t>
+          <t>DAE</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>ISL</t>
+          <t>DAE</t>
         </is>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Iceland</t>
+          <t>DAE</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t xml:space="preserve">Forecast: Countries from transfer matrix</t>
+          <t xml:space="preserve">Forecast: Countries with volumes at constant prices</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t xml:space="preserve">Forecast: Countries from transfer matrix</t>
+          <t xml:space="preserve">Forecast: Countries with volumes at constant prices</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t xml:space="preserve">Forecast: Countries from transfer matrix</t>
+          <t xml:space="preserve">Forecast: Countries with volumes at constant prices</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t xml:space="preserve">Forecast: Countries from transfer matrix</t>
+          <t xml:space="preserve">Forecast: Countries with volumes at constant prices</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>RS</t>
+          <t>EL</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>45</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>SRB</t>
+          <t>GRC</t>
         </is>
       </c>
       <c r="H110" t="inlineStr">
         <is>
-          <t>Serbia</t>
+          <t>Greece</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t xml:space="preserve">Forecast: Countries from transfer matrix</t>
+          <t xml:space="preserve">Forecast: Countries with volumes at constant prices</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t xml:space="preserve">Forecast: Countries from transfer matrix</t>
+          <t xml:space="preserve">Forecast: Countries with volumes at constant prices</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t xml:space="preserve">Forecast: Countries from transfer matrix</t>
+          <t xml:space="preserve">Forecast: Countries with volumes at constant prices</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t xml:space="preserve">Forecast: Countries from transfer matrix</t>
+          <t xml:space="preserve">Forecast: Countries with volumes at constant prices</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>AL</t>
+          <t>TR</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>46</t>
+          <t>26</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>ALB</t>
+          <t>TUR</t>
         </is>
       </c>
       <c r="H111" t="inlineStr">
         <is>
-          <t>Albania</t>
+          <t>Turkey</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t xml:space="preserve">Forecast: Countries from transfer matrix</t>
+          <t xml:space="preserve">Forecast: Countries with volumes at constant prices</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t xml:space="preserve">Forecast: Countries from transfer matrix</t>
+          <t xml:space="preserve">Forecast: Countries with volumes at constant prices</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t xml:space="preserve">Forecast: Countries from transfer matrix</t>
+          <t xml:space="preserve">Forecast: Countries with volumes at constant prices</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t xml:space="preserve">Forecast: Countries from transfer matrix</t>
+          <t xml:space="preserve">Forecast: Countries with volumes at constant prices</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>US</t>
+          <t>RS</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>30</t>
+          <t>45</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>SRB</t>
         </is>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>USA</t>
+          <t>Serbia</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t xml:space="preserve">Forecast: Countries from transfer matrix</t>
+          <t xml:space="preserve">Forecast: Countries with volumes at constant prices</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t xml:space="preserve">Forecast: Countries from transfer matrix</t>
+          <t xml:space="preserve">Forecast: Countries with volumes at constant prices</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t xml:space="preserve">Forecast: Countries from transfer matrix</t>
+          <t xml:space="preserve">Forecast: Countries with volumes at constant prices</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t xml:space="preserve">Forecast: Countries from transfer matrix</t>
+          <t xml:space="preserve">Forecast: Countries with volumes at constant prices</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>JP</t>
+          <t>US</t>
         </is>
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>30</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
         <is>
-          <t>JPN</t>
+          <t>USA</t>
         </is>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>USA</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t xml:space="preserve">Forecast: Countries from transfer matrix</t>
+          <t xml:space="preserve">Forecast: Countries with volumes at constant prices</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t xml:space="preserve">Forecast: Countries from transfer matrix</t>
+          <t xml:space="preserve">Forecast: Countries with volumes at constant prices</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t xml:space="preserve">Forecast: Countries from transfer matrix</t>
+          <t xml:space="preserve">Forecast: Countries with volumes at constant prices</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t xml:space="preserve">Forecast: Countries from transfer matrix</t>
+          <t xml:space="preserve">Forecast: Countries with volumes at constant prices</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>CH</t>
+          <t>JP</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>40</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>CHE</t>
+          <t>JPN</t>
         </is>
       </c>
       <c r="H114" t="inlineStr">
         <is>
-          <t>Switzerland</t>
+          <t>Japan</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t xml:space="preserve">Forecast: Countries from transfer matrix</t>
+          <t xml:space="preserve">Forecast: Countries reporting in FTEs</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t xml:space="preserve">Forecast: Countries from transfer matrix</t>
+          <t xml:space="preserve">Forecast: Countries reporting in FTEs</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t xml:space="preserve">Forecast: Countries from transfer matrix</t>
+          <t xml:space="preserve">Forecast: Countries reporting in FTEs</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t xml:space="preserve">Forecast: Countries from transfer matrix</t>
+          <t xml:space="preserve">Forecast: Countries reporting in FTEs</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>NO</t>
+          <t>ES</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>5</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>NOR</t>
+          <t>ESP</t>
         </is>
       </c>
       <c r="H115" t="inlineStr">
         <is>
-          <t>Norway</t>
+          <t>Spain</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t xml:space="preserve">Forecast: Countries from transfer matrix</t>
+          <t xml:space="preserve">Forecast: Countries reporting in FTEs</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t xml:space="preserve">Forecast: Countries from transfer matrix</t>
+          <t xml:space="preserve">Forecast: Countries reporting in FTEs</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t xml:space="preserve">Forecast: Countries from transfer matrix</t>
+          <t xml:space="preserve">Forecast: Countries reporting in FTEs</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t xml:space="preserve">Forecast: Countries from transfer matrix</t>
+          <t xml:space="preserve">Forecast: Countries reporting in FTEs</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>RU</t>
+          <t>FR</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>RUS</t>
+          <t>FRA</t>
         </is>
       </c>
       <c r="H116" t="inlineStr">
         <is>
-          <t>Russia</t>
+          <t>France</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t xml:space="preserve">Forecast: Countries from transfer matrix</t>
+          <t xml:space="preserve">Forecast: Countries reporting in FTEs</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t xml:space="preserve">Forecast: Countries from transfer matrix</t>
+          <t xml:space="preserve">Forecast: Countries reporting in FTEs</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t xml:space="preserve">Forecast: Countries from transfer matrix</t>
+          <t xml:space="preserve">Forecast: Countries reporting in FTEs</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t xml:space="preserve">Forecast: Countries from transfer matrix</t>
+          <t xml:space="preserve">Forecast: Countries reporting in FTEs</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>DAE</t>
+          <t>IT</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>DAE</t>
+          <t>8</t>
         </is>
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>DAE</t>
+          <t>ITA</t>
         </is>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>DAE</t>
+          <t>Italy</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t xml:space="preserve">Forecast: Countries with EA membership since 1999</t>
+          <t xml:space="preserve">Forecast: Countries reporting in FTEs</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t xml:space="preserve">Forecast: Countries with EA membership since 1999</t>
+          <t xml:space="preserve">Forecast: Countries reporting in FTEs</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t xml:space="preserve">Forecast: Countries with EA membership since 1999</t>
+          <t xml:space="preserve">Forecast: Countries reporting in FTEs</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t xml:space="preserve">Forecast: Countries with EA membership since 1999</t>
+          <t xml:space="preserve">Forecast: Countries reporting in FTEs</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>BE</t>
+          <t>NL</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>BEL</t>
+          <t>NLD</t>
         </is>
       </c>
       <c r="H118" t="inlineStr">
-        <is>
-          <t>Belgium</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Forecast: Countries with EA membership since 1999</t>
-        </is>
-      </c>
-      <c r="B119" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Forecast: Countries with EA membership since 1999</t>
-        </is>
-      </c>
-      <c r="C119" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Forecast: Countries with EA membership since 1999</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Forecast: Countries with EA membership since 1999</t>
-        </is>
-      </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>DE</t>
-        </is>
-      </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="G119" t="inlineStr">
-        <is>
-          <t>DEU</t>
-        </is>
-      </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>Germany</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Forecast: Countries with EA membership since 1999</t>
-        </is>
-      </c>
-      <c r="B120" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Forecast: Countries with EA membership since 1999</t>
-        </is>
-      </c>
-      <c r="C120" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Forecast: Countries with EA membership since 1999</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Forecast: Countries with EA membership since 1999</t>
-        </is>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>IE</t>
-        </is>
-      </c>
-      <c r="F120" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="G120" t="inlineStr">
-        <is>
-          <t>IRL</t>
-        </is>
-      </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>Ireland</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Forecast: Countries with EA membership since 1999</t>
-        </is>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Forecast: Countries with EA membership since 1999</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Forecast: Countries with EA membership since 1999</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Forecast: Countries with EA membership since 1999</t>
-        </is>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>ES</t>
-        </is>
-      </c>
-      <c r="F121" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="G121" t="inlineStr">
-        <is>
-          <t>ESP</t>
-        </is>
-      </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>Spain</t>
-        </is>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Forecast: Countries with EA membership since 1999</t>
-        </is>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Forecast: Countries with EA membership since 1999</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Forecast: Countries with EA membership since 1999</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Forecast: Countries with EA membership since 1999</t>
-        </is>
-      </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="F122" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="G122" t="inlineStr">
-        <is>
-          <t>FRA</t>
-        </is>
-      </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>France</t>
-        </is>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Forecast: Countries with EA membership since 1999</t>
-        </is>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Forecast: Countries with EA membership since 1999</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Forecast: Countries with EA membership since 1999</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Forecast: Countries with EA membership since 1999</t>
-        </is>
-      </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="F123" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="G123" t="inlineStr">
-        <is>
-          <t>ITA</t>
-        </is>
-      </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>Italy</t>
-        </is>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Forecast: Countries with EA membership since 1999</t>
-        </is>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Forecast: Countries with EA membership since 1999</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Forecast: Countries with EA membership since 1999</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Forecast: Countries with EA membership since 1999</t>
-        </is>
-      </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>LU</t>
-        </is>
-      </c>
-      <c r="F124" t="inlineStr">
-        <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="G124" t="inlineStr">
-        <is>
-          <t>LUX</t>
-        </is>
-      </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>Luxembourg</t>
-        </is>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Forecast: Countries with EA membership since 1999</t>
-        </is>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Forecast: Countries with EA membership since 1999</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Forecast: Countries with EA membership since 1999</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Forecast: Countries with EA membership since 1999</t>
-        </is>
-      </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>NL</t>
-        </is>
-      </c>
-      <c r="F125" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="G125" t="inlineStr">
-        <is>
-          <t>NLD</t>
-        </is>
-      </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>Netherlands</t>
-        </is>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Forecast: Countries with EA membership since 1999</t>
-        </is>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Forecast: Countries with EA membership since 1999</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Forecast: Countries with EA membership since 1999</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Forecast: Countries with EA membership since 1999</t>
-        </is>
-      </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>AT</t>
-        </is>
-      </c>
-      <c r="F126" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="G126" t="inlineStr">
-        <is>
-          <t>AUT</t>
-        </is>
-      </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>Austria</t>
-        </is>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Forecast: Countries with EA membership since 1999</t>
-        </is>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Forecast: Countries with EA membership since 1999</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Forecast: Countries with EA membership since 1999</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Forecast: Countries with EA membership since 1999</t>
-        </is>
-      </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>PT</t>
-        </is>
-      </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="G127" t="inlineStr">
-        <is>
-          <t>PRT</t>
-        </is>
-      </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>Portugal</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Forecast: Countries with EA membership since 1999</t>
-        </is>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Forecast: Countries with EA membership since 1999</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Forecast: Countries with EA membership since 1999</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Forecast: Countries with EA membership since 1999</t>
-        </is>
-      </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>FI</t>
-        </is>
-      </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="G128" t="inlineStr">
-        <is>
-          <t>FIN</t>
-        </is>
-      </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>Finland</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Forecast: Countries with volumes at constant prices</t>
-        </is>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Forecast: Countries with volumes at constant prices</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Forecast: Countries with volumes at constant prices</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Forecast: Countries with volumes at constant prices</t>
-        </is>
-      </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>EL</t>
-        </is>
-      </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="G129" t="inlineStr">
-        <is>
-          <t>GRC</t>
-        </is>
-      </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>Greece</t>
-        </is>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Forecast: Countries with volumes at constant prices</t>
-        </is>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Forecast: Countries with volumes at constant prices</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Forecast: Countries with volumes at constant prices</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Forecast: Countries with volumes at constant prices</t>
-        </is>
-      </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>TR</t>
-        </is>
-      </c>
-      <c r="F130" t="inlineStr">
-        <is>
-          <t>26</t>
-        </is>
-      </c>
-      <c r="G130" t="inlineStr">
-        <is>
-          <t>TUR</t>
-        </is>
-      </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>Turkey</t>
-        </is>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Forecast: Countries with volumes at constant prices</t>
-        </is>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Forecast: Countries with volumes at constant prices</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Forecast: Countries with volumes at constant prices</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Forecast: Countries with volumes at constant prices</t>
-        </is>
-      </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>RS</t>
-        </is>
-      </c>
-      <c r="F131" t="inlineStr">
-        <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="G131" t="inlineStr">
-        <is>
-          <t>SRB</t>
-        </is>
-      </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>Serbia</t>
-        </is>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Forecast: Countries with volumes at constant prices</t>
-        </is>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Forecast: Countries with volumes at constant prices</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Forecast: Countries with volumes at constant prices</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Forecast: Countries with volumes at constant prices</t>
-        </is>
-      </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>US</t>
-        </is>
-      </c>
-      <c r="F132" t="inlineStr">
-        <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="G132" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>USA</t>
-        </is>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Forecast: Countries with volumes at constant prices</t>
-        </is>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Forecast: Countries with volumes at constant prices</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Forecast: Countries with volumes at constant prices</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Forecast: Countries with volumes at constant prices</t>
-        </is>
-      </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>JP</t>
-        </is>
-      </c>
-      <c r="F133" t="inlineStr">
-        <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="G133" t="inlineStr">
-        <is>
-          <t>JPN</t>
-        </is>
-      </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>Japan</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Forecast: Countries reporting in FTEs</t>
-        </is>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Forecast: Countries reporting in FTEs</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Forecast: Countries reporting in FTEs</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Forecast: Countries reporting in FTEs</t>
-        </is>
-      </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>ES</t>
-        </is>
-      </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="G134" t="inlineStr">
-        <is>
-          <t>ESP</t>
-        </is>
-      </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>Spain</t>
-        </is>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Forecast: Countries reporting in FTEs</t>
-        </is>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Forecast: Countries reporting in FTEs</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Forecast: Countries reporting in FTEs</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Forecast: Countries reporting in FTEs</t>
-        </is>
-      </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>FR</t>
-        </is>
-      </c>
-      <c r="F135" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="G135" t="inlineStr">
-        <is>
-          <t>FRA</t>
-        </is>
-      </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>France</t>
-        </is>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Forecast: Countries reporting in FTEs</t>
-        </is>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Forecast: Countries reporting in FTEs</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Forecast: Countries reporting in FTEs</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Forecast: Countries reporting in FTEs</t>
-        </is>
-      </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>IT</t>
-        </is>
-      </c>
-      <c r="F136" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="G136" t="inlineStr">
-        <is>
-          <t>ITA</t>
-        </is>
-      </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>Italy</t>
-        </is>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Forecast: Countries reporting in FTEs</t>
-        </is>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Forecast: Countries reporting in FTEs</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Forecast: Countries reporting in FTEs</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Forecast: Countries reporting in FTEs</t>
-        </is>
-      </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>NL</t>
-        </is>
-      </c>
-      <c r="F137" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="G137" t="inlineStr">
-        <is>
-          <t>NLD</t>
-        </is>
-      </c>
-      <c r="H137" t="inlineStr">
         <is>
           <t>Netherlands</t>
         </is>
